--- a/DKSalaries_template.xlsx
+++ b/DKSalaries_template.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsim\Dropbox\bball\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
+    <workbookView xWindow="13358" yWindow="938" windowWidth="19838" windowHeight="17858"/>
   </bookViews>
   <sheets>
     <sheet name="DKSalaries" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">DKSalaries!$U$3</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">DKSalaries!$U$3</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">DKSalaries!$U$4</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -93,9 +94,14 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1238,7 +1244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1273,7 +1279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1461,27 +1467,26 @@
   <dimension ref="A1:X235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="10"/>
-    <col min="2" max="2" width="18.19921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.46484375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.53125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="4.59765625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2.46484375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.9296875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="2.796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="2.46484375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="2.53125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.59765625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="2.46484375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.46484375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1566,7 +1571,7 @@
         <v>39.5</v>
       </c>
       <c r="F2">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G2">
@@ -1640,7 +1645,7 @@
         <v>52</v>
       </c>
       <c r="F3">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G3">
@@ -1713,7 +1718,7 @@
         <v>43.688000000000002</v>
       </c>
       <c r="F4">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G4">
@@ -1780,7 +1785,7 @@
         <v>42.75</v>
       </c>
       <c r="F5">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G5">
@@ -1847,7 +1852,7 @@
         <v>46.438000000000002</v>
       </c>
       <c r="F6">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G6">
@@ -1907,7 +1912,7 @@
         <v>44.332999999999998</v>
       </c>
       <c r="F7">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G7">
@@ -1974,7 +1979,7 @@
         <v>41.125</v>
       </c>
       <c r="F8">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G8">
@@ -2041,7 +2046,7 @@
         <v>38.5</v>
       </c>
       <c r="F9">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G9">
@@ -2108,7 +2113,7 @@
         <v>42.5</v>
       </c>
       <c r="F10">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G10">
@@ -2168,7 +2173,7 @@
         <v>38.438000000000002</v>
       </c>
       <c r="F11">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G11">
@@ -2228,7 +2233,7 @@
         <v>35.125</v>
       </c>
       <c r="F12">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G12">
@@ -2288,7 +2293,7 @@
         <v>40.063000000000002</v>
       </c>
       <c r="F13">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G13">
@@ -2359,7 +2364,7 @@
         <v>32.75</v>
       </c>
       <c r="F14">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G14">
@@ -2419,7 +2424,7 @@
         <v>30.082999999999998</v>
       </c>
       <c r="F15">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G15">
@@ -2482,7 +2487,7 @@
         <v>27.687999999999999</v>
       </c>
       <c r="F16">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G16">
@@ -2545,7 +2550,7 @@
         <v>24.832999999999998</v>
       </c>
       <c r="F17">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G17">
@@ -2608,7 +2613,7 @@
         <v>37.188000000000002</v>
       </c>
       <c r="F18">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G18">
@@ -2671,7 +2676,7 @@
         <v>25.187999999999999</v>
       </c>
       <c r="F19">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G19">
@@ -2731,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G20">
@@ -2791,7 +2796,7 @@
         <v>27.375</v>
       </c>
       <c r="F21">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G21">
@@ -2851,7 +2856,7 @@
         <v>22.062999999999999</v>
       </c>
       <c r="F22">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G22">
@@ -2911,7 +2916,7 @@
         <v>33.688000000000002</v>
       </c>
       <c r="F23">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G23">
@@ -2971,7 +2976,7 @@
         <v>31.167000000000002</v>
       </c>
       <c r="F24">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G24">
@@ -3031,7 +3036,7 @@
         <v>23.417000000000002</v>
       </c>
       <c r="F25">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G25">
@@ -3091,7 +3096,7 @@
         <v>31.062999999999999</v>
       </c>
       <c r="F26">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G26">
@@ -3151,7 +3156,7 @@
         <v>23</v>
       </c>
       <c r="F27">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G27">
@@ -3211,7 +3216,7 @@
         <v>26.917000000000002</v>
       </c>
       <c r="F28">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G28">
@@ -3271,7 +3276,7 @@
         <v>24.25</v>
       </c>
       <c r="F29">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G29">
@@ -3331,7 +3336,7 @@
         <v>23.417000000000002</v>
       </c>
       <c r="F30">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G30">
@@ -3391,7 +3396,7 @@
         <v>23.582999999999998</v>
       </c>
       <c r="F31">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G31">
@@ -3451,7 +3456,7 @@
         <v>22.25</v>
       </c>
       <c r="F32">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G32">
@@ -3511,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="F33">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G33">
@@ -3571,7 +3576,7 @@
         <v>20.25</v>
       </c>
       <c r="F34">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G34">
@@ -3631,7 +3636,7 @@
         <v>12.25</v>
       </c>
       <c r="F35">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G35">
@@ -3691,7 +3696,7 @@
         <v>24</v>
       </c>
       <c r="F36">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G36">
@@ -3751,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G37">
@@ -3811,7 +3816,7 @@
         <v>16.875</v>
       </c>
       <c r="F38">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G38">
@@ -3871,7 +3876,7 @@
         <v>19.25</v>
       </c>
       <c r="F39">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G39">
@@ -3931,7 +3936,7 @@
         <v>18.332999999999998</v>
       </c>
       <c r="F40">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G40">
@@ -3991,7 +3996,7 @@
         <v>22.312999999999999</v>
       </c>
       <c r="F41">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G41">
@@ -4051,7 +4056,7 @@
         <v>18.332999999999998</v>
       </c>
       <c r="F42">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G42">
@@ -4111,7 +4116,7 @@
         <v>15.438000000000001</v>
       </c>
       <c r="F43">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G43">
@@ -4171,7 +4176,7 @@
         <v>13.438000000000001</v>
       </c>
       <c r="F44">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G44">
@@ -4231,7 +4236,7 @@
         <v>22.625</v>
       </c>
       <c r="F45">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G45">
@@ -4291,7 +4296,7 @@
         <v>18.167000000000002</v>
       </c>
       <c r="F46">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G46">
@@ -4351,7 +4356,7 @@
         <v>12.25</v>
       </c>
       <c r="F47">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G47">
@@ -4411,7 +4416,7 @@
         <v>15</v>
       </c>
       <c r="F48">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G48">
@@ -4471,7 +4476,7 @@
         <v>11.583</v>
       </c>
       <c r="F49">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G49">
@@ -4531,7 +4536,7 @@
         <v>15.25</v>
       </c>
       <c r="F50">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G50">
@@ -4591,7 +4596,7 @@
         <v>12.063000000000001</v>
       </c>
       <c r="F51">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G51">
@@ -4651,7 +4656,7 @@
         <v>20.562999999999999</v>
       </c>
       <c r="F52">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G52">
@@ -4711,7 +4716,7 @@
         <v>10.333</v>
       </c>
       <c r="F53">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G53">
@@ -4771,7 +4776,7 @@
         <v>9.0630000000000006</v>
       </c>
       <c r="F54">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G54">
@@ -4831,7 +4836,7 @@
         <v>22.875</v>
       </c>
       <c r="F55">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G55">
@@ -4891,7 +4896,7 @@
         <v>9.375</v>
       </c>
       <c r="F56">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G56">
@@ -4951,7 +4956,7 @@
         <v>19.5</v>
       </c>
       <c r="F57">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G57">
@@ -5011,7 +5016,7 @@
         <v>11.563000000000001</v>
       </c>
       <c r="F58">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G58">
@@ -5071,7 +5076,7 @@
         <v>11.333</v>
       </c>
       <c r="F59">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G59">
@@ -5131,7 +5136,7 @@
         <v>2.75</v>
       </c>
       <c r="F60">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G60">
@@ -5191,7 +5196,7 @@
         <v>7.5</v>
       </c>
       <c r="F61">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G61">
@@ -5251,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G62">
@@ -5311,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G63">
@@ -5371,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G64">
@@ -5431,7 +5436,7 @@
         <v>3.75</v>
       </c>
       <c r="F65">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G65">
@@ -5491,7 +5496,7 @@
         <v>5.25</v>
       </c>
       <c r="F66">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G66">
@@ -5551,7 +5556,7 @@
         <v>7.9169999999999998</v>
       </c>
       <c r="F67">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G67">
@@ -5611,7 +5616,7 @@
         <v>2.625</v>
       </c>
       <c r="F68">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G68">
@@ -5671,7 +5676,7 @@
         <v>13.917</v>
       </c>
       <c r="F69">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G69">
@@ -5731,7 +5736,7 @@
         <v>8.375</v>
       </c>
       <c r="F70">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G70">
@@ -5791,7 +5796,7 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="F71">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G71">
@@ -5851,7 +5856,7 @@
         <v>14.125</v>
       </c>
       <c r="F72">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G72">
@@ -5911,7 +5916,7 @@
         <v>12.313000000000001</v>
       </c>
       <c r="F73">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G73">
@@ -5971,7 +5976,7 @@
         <v>10.625</v>
       </c>
       <c r="F74">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G74">
@@ -6031,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G75">
@@ -6091,7 +6096,7 @@
         <v>6.125</v>
       </c>
       <c r="F76">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G76">
@@ -6151,7 +6156,7 @@
         <v>4.3330000000000002</v>
       </c>
       <c r="F77">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G77">
@@ -6211,7 +6216,7 @@
         <v>7.8330000000000002</v>
       </c>
       <c r="F78">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G78">
@@ -6271,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G79">
@@ -6331,7 +6336,7 @@
         <v>6.4379999999999997</v>
       </c>
       <c r="F80">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G80">
@@ -6391,7 +6396,7 @@
         <v>12.75</v>
       </c>
       <c r="F81">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G81">
@@ -6451,7 +6456,7 @@
         <v>11.833</v>
       </c>
       <c r="F82">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G82">
@@ -6511,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G83">
@@ -6571,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G84">
@@ -6631,7 +6636,7 @@
         <v>1.75</v>
       </c>
       <c r="F85">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G85">
@@ -6691,7 +6696,7 @@
         <v>6.8129999999999997</v>
       </c>
       <c r="F86">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G86">
@@ -6751,7 +6756,7 @@
         <v>4.625</v>
       </c>
       <c r="F87">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G87">
@@ -6811,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G88">
@@ -6871,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G89">
@@ -6931,7 +6936,7 @@
         <v>11.083</v>
       </c>
       <c r="F90">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G90">
@@ -6991,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G91">
@@ -7051,7 +7056,7 @@
         <v>14.688000000000001</v>
       </c>
       <c r="F92">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G92">
@@ -7111,7 +7116,7 @@
         <v>2.75</v>
       </c>
       <c r="F93">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G93">
@@ -7171,7 +7176,7 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="F94">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G94">
@@ -7231,7 +7236,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G95">
@@ -7291,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G96">
@@ -7351,7 +7356,7 @@
         <v>2.75</v>
       </c>
       <c r="F97">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G97">
@@ -7411,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G98">
@@ -7471,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G99">
@@ -7531,7 +7536,7 @@
         <v>8.4169999999999998</v>
       </c>
       <c r="F100">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G100">
@@ -7591,7 +7596,7 @@
         <v>1.625</v>
       </c>
       <c r="F101">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G101">
@@ -7651,7 +7656,7 @@
         <v>3.5</v>
       </c>
       <c r="F102">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G102">
@@ -7711,7 +7716,7 @@
         <v>17.5</v>
       </c>
       <c r="F103">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G103">
@@ -7771,7 +7776,7 @@
         <v>4.4379999999999997</v>
       </c>
       <c r="F104">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G104">
@@ -7831,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G105">
@@ -7891,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G106">
@@ -7951,7 +7956,7 @@
         <v>2.75</v>
       </c>
       <c r="F107">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G107">
@@ -8011,7 +8016,7 @@
         <v>11.75</v>
       </c>
       <c r="F108">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G108">
@@ -8071,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G109">
@@ -8131,7 +8136,7 @@
         <v>3.25</v>
       </c>
       <c r="F110">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G110">
@@ -8191,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G111">
@@ -8251,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G112">
@@ -8311,7 +8316,7 @@
         <v>6.125</v>
       </c>
       <c r="F113">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G113">
@@ -8371,7 +8376,7 @@
         <v>3.5830000000000002</v>
       </c>
       <c r="F114">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G114">
@@ -8431,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G115">
@@ -8491,7 +8496,7 @@
         <v>13.063000000000001</v>
       </c>
       <c r="F116">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G116">
@@ -8551,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G117">
@@ -8611,7 +8616,7 @@
         <v>3.875</v>
       </c>
       <c r="F118">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3))</f>
         <v>1.0110809115617814</v>
       </c>
       <c r="G118">
@@ -8671,7 +8676,7 @@
         <v>10.167</v>
       </c>
       <c r="F119">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G119">
@@ -8716,7 +8721,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F120">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D120,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D120,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G120">
@@ -8761,7 +8766,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F121">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D121,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D121,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G121">
@@ -8806,7 +8811,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F122">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D122,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D122,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G122">
@@ -8851,7 +8856,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F123">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D123,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D123,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G123">
@@ -8896,7 +8901,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F124">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D124,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D124,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G124">
@@ -8941,7 +8946,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F125">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D125,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D125,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G125">
@@ -8986,7 +8991,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F126">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D126,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D126,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G126">
@@ -9031,7 +9036,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F127">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D127,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D127,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G127">
@@ -9076,7 +9081,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F128">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D128,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D128,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G128">
@@ -9121,7 +9126,7 @@
     </row>
     <row r="129" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F129">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D129,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D129,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G129">
@@ -9166,7 +9171,7 @@
     </row>
     <row r="130" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F130">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D130,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D130,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G130">
@@ -9211,7 +9216,7 @@
     </row>
     <row r="131" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F131">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D131,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D131,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G131">
@@ -9256,7 +9261,7 @@
     </row>
     <row r="132" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F132">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D132,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D132,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G132">
@@ -9301,7 +9306,7 @@
     </row>
     <row r="133" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F133">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D133,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D133,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G133">
@@ -9346,7 +9351,7 @@
     </row>
     <row r="134" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F134">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D134,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D134,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G134">
@@ -9391,7 +9396,7 @@
     </row>
     <row r="135" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F135">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D135,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D135,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G135">
@@ -9436,7 +9441,7 @@
     </row>
     <row r="136" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F136">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D136,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D136,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G136">
@@ -9481,7 +9486,7 @@
     </row>
     <row r="137" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F137">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D137,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D137,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G137">
@@ -9526,7 +9531,7 @@
     </row>
     <row r="138" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F138">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D138,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D138,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G138">
@@ -9571,7 +9576,7 @@
     </row>
     <row r="139" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F139">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D139,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D139,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G139">
@@ -9616,7 +9621,7 @@
     </row>
     <row r="140" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F140">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D140,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D140,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G140">
@@ -9661,7 +9666,7 @@
     </row>
     <row r="141" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F141">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D141,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D141,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G141">
@@ -9706,7 +9711,7 @@
     </row>
     <row r="142" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F142">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D142,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D142,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G142">
@@ -9751,7 +9756,7 @@
     </row>
     <row r="143" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F143">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D143,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D143,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G143">
@@ -9796,7 +9801,7 @@
     </row>
     <row r="144" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F144">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D144,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D144,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G144">
@@ -9841,7 +9846,7 @@
     </row>
     <row r="145" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F145">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D145,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D145,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G145">
@@ -9886,7 +9891,7 @@
     </row>
     <row r="146" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F146">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D146,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D146,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G146">
@@ -9931,7 +9936,7 @@
     </row>
     <row r="147" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F147">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D147,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D147,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G147">
@@ -9976,7 +9981,7 @@
     </row>
     <row r="148" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F148">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D148,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D148,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G148">
@@ -10021,7 +10026,7 @@
     </row>
     <row r="149" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F149">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D149,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D149,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G149">
@@ -10066,7 +10071,7 @@
     </row>
     <row r="150" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F150">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D150,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D150,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G150">
@@ -10111,7 +10116,7 @@
     </row>
     <row r="151" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F151">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D151,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D151,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G151">
@@ -10156,7 +10161,7 @@
     </row>
     <row r="152" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F152">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D152,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D152,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G152">
@@ -10201,7 +10206,7 @@
     </row>
     <row r="153" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F153">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D153,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D153,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G153">
@@ -10246,7 +10251,7 @@
     </row>
     <row r="154" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F154">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D154,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D154,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G154">
@@ -10291,7 +10296,7 @@
     </row>
     <row r="155" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F155">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G155">
@@ -10336,7 +10341,7 @@
     </row>
     <row r="156" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F156">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G156">
@@ -10381,7 +10386,7 @@
     </row>
     <row r="157" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F157">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G157">
@@ -10426,7 +10431,7 @@
     </row>
     <row r="158" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F158">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G158">
@@ -10471,7 +10476,7 @@
     </row>
     <row r="159" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F159">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G159">
@@ -10516,7 +10521,7 @@
     </row>
     <row r="160" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F160">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G160">
@@ -10561,7 +10566,7 @@
     </row>
     <row r="161" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F161">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G161">
@@ -10606,7 +10611,7 @@
     </row>
     <row r="162" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F162">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G162">
@@ -10651,7 +10656,7 @@
     </row>
     <row r="163" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F163">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G163">
@@ -10696,7 +10701,7 @@
     </row>
     <row r="164" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F164">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G164">
@@ -10741,7 +10746,7 @@
     </row>
     <row r="165" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F165">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G165">
@@ -10786,7 +10791,7 @@
     </row>
     <row r="166" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F166">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G166">
@@ -10831,7 +10836,7 @@
     </row>
     <row r="167" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F167">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G167">
@@ -10876,7 +10881,7 @@
     </row>
     <row r="168" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F168">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G168">
@@ -10921,7 +10926,7 @@
     </row>
     <row r="169" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F169">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G169">
@@ -10966,7 +10971,7 @@
     </row>
     <row r="170" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F170">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G170">
@@ -11011,7 +11016,7 @@
     </row>
     <row r="171" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F171">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G171">
@@ -11056,7 +11061,7 @@
     </row>
     <row r="172" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F172">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G172">
@@ -11101,7 +11106,7 @@
     </row>
     <row r="173" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F173">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G173">
@@ -11146,7 +11151,7 @@
     </row>
     <row r="174" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F174">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G174">
@@ -11191,7 +11196,7 @@
     </row>
     <row r="175" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F175">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G175">
@@ -11236,7 +11241,7 @@
     </row>
     <row r="176" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F176">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G176">
@@ -11281,7 +11286,7 @@
     </row>
     <row r="177" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F177">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G177">
@@ -11326,7 +11331,7 @@
     </row>
     <row r="178" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F178">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G178">
@@ -11371,7 +11376,7 @@
     </row>
     <row r="179" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F179">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G179">
@@ -11416,7 +11421,7 @@
     </row>
     <row r="180" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F180">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G180">
@@ -11461,7 +11466,7 @@
     </row>
     <row r="181" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F181">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G181">
@@ -11506,7 +11511,7 @@
     </row>
     <row r="182" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F182">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G182">
@@ -11551,7 +11556,7 @@
     </row>
     <row r="183" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F183">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G183">
@@ -11596,7 +11601,7 @@
     </row>
     <row r="184" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F184">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G184">
@@ -11641,7 +11646,7 @@
     </row>
     <row r="185" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F185">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G185">
@@ -11686,7 +11691,7 @@
     </row>
     <row r="186" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F186">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G186">
@@ -11731,7 +11736,7 @@
     </row>
     <row r="187" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F187">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G187">
@@ -11776,7 +11781,7 @@
     </row>
     <row r="188" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F188">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G188">
@@ -11821,7 +11826,7 @@
     </row>
     <row r="189" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F189">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G189">
@@ -11866,7 +11871,7 @@
     </row>
     <row r="190" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F190">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G190">
@@ -11911,7 +11916,7 @@
     </row>
     <row r="191" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F191">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G191">
@@ -11956,7 +11961,7 @@
     </row>
     <row r="192" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F192">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G192">
@@ -12001,7 +12006,7 @@
     </row>
     <row r="193" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F193">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G193">
@@ -12046,7 +12051,7 @@
     </row>
     <row r="194" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F194">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G194">
@@ -12091,7 +12096,7 @@
     </row>
     <row r="195" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F195">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3)),0)</f>
         <v>0</v>
       </c>
       <c r="G195">
@@ -13941,6 +13946,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13952,11 +13962,11 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -14137,5 +14147,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DKSalaries_template.xlsx
+++ b/DKSalaries_template.xlsx
@@ -94,7 +94,7 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:X235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1544,14 +1544,14 @@
       </c>
       <c r="S1" s="2">
         <f>SUM(J2:J120)</f>
-        <v>277.41841605686807</v>
+        <v>276.59920970102451</v>
       </c>
       <c r="T1" t="s">
         <v>15</v>
       </c>
       <c r="U1">
         <f>SUM(L:L)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.45">
@@ -1571,7 +1571,7 @@
         <v>39.5</v>
       </c>
       <c r="F2">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D2,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G2">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="U2">
         <f>SUM(M:M)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.45">
@@ -1645,31 +1645,31 @@
         <v>52</v>
       </c>
       <c r="F3">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D3,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="2">E3*F3</f>
-        <v>52.576207401212628</v>
+        <v>54.794062303993307</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H66" si="3">G3</f>
-        <v>52.576207401212628</v>
+        <v>54.794062303993307</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="4">I3*H3</f>
-        <v>0</v>
+        <v>54.794062303993307</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -1718,16 +1718,16 @@
         <v>43.688000000000002</v>
       </c>
       <c r="F4">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D4,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>44.172102864311107</v>
+        <v>46.035442191093459</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="3"/>
-        <v>44.172102864311107</v>
+        <v>46.035442191093459</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>42.75</v>
       </c>
       <c r="F5">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D5,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G5">
@@ -1852,16 +1852,16 @@
         <v>46.438000000000002</v>
       </c>
       <c r="F6">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D6,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>46.952575371106008</v>
+        <v>48.933205101400794</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="3"/>
-        <v>46.952575371106008</v>
+        <v>48.933205101400794</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>44.332999999999998</v>
       </c>
       <c r="F7">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D7,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G7">
@@ -1979,27 +1979,27 @@
         <v>41.125</v>
       </c>
       <c r="F8">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D8,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>41.580702487978257</v>
+        <v>39.929855739075897</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="3"/>
-        <v>41.580702487978257</v>
+        <v>39.929855739075897</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>41.580702487978257</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
         <v>21</v>
@@ -2046,7 +2046,7 @@
         <v>38.5</v>
       </c>
       <c r="F9">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D9,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G9">
@@ -2113,23 +2113,23 @@
         <v>42.5</v>
       </c>
       <c r="F10">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D10,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>42.970938741375711</v>
+        <v>44.783608613840684</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="3"/>
-        <v>42.970938741375711</v>
+        <v>44.783608613840684</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>42.970938741375711</v>
+        <v>44.783608613840684</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -2173,7 +2173,7 @@
         <v>38.438000000000002</v>
       </c>
       <c r="F11">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D11,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G11">
@@ -2233,7 +2233,7 @@
         <v>35.125</v>
       </c>
       <c r="F12">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D12,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G12">
@@ -2293,23 +2293,23 @@
         <v>40.063000000000002</v>
       </c>
       <c r="F13">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D13,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>40.506934559899648</v>
+        <v>38.898718795734901</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>40.506934559899648</v>
+        <v>38.898718795734901</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>40.506934559899648</v>
+        <v>38.898718795734901</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -2364,7 +2364,7 @@
         <v>32.75</v>
       </c>
       <c r="F14">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D14,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G14">
@@ -2424,7 +2424,7 @@
         <v>30.082999999999998</v>
       </c>
       <c r="F15">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D15,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G15">
@@ -2487,16 +2487,16 @@
         <v>27.687999999999999</v>
       </c>
       <c r="F16">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D16,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>27.994808279322601</v>
+        <v>26.883351871210539</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="3"/>
-        <v>27.994808279322601</v>
+        <v>26.883351871210539</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>24.832999999999998</v>
       </c>
       <c r="F17">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D17,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G17">
@@ -2613,7 +2613,7 @@
         <v>37.188000000000002</v>
       </c>
       <c r="F18">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D18,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G18">
@@ -2676,16 +2676,16 @@
         <v>25.187999999999999</v>
       </c>
       <c r="F19">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D19,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>25.467106000418148</v>
+        <v>26.541400794480449</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>25.467106000418148</v>
+        <v>26.541400794480449</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2736,8 +2736,8 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D20,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -2796,16 +2796,16 @@
         <v>27.375</v>
       </c>
       <c r="F21">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D21,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>27.678339954003764</v>
+        <v>26.579448045159943</v>
       </c>
       <c r="H21" s="4">
         <f t="shared" si="3"/>
-        <v>27.678339954003764</v>
+        <v>26.579448045159943</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2856,16 +2856,16 @@
         <v>22.062999999999999</v>
       </c>
       <c r="F22">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D22,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>22.307478151787581</v>
+        <v>21.421821450972192</v>
       </c>
       <c r="H22" s="4">
         <f t="shared" si="3"/>
-        <v>22.307478151787581</v>
+        <v>21.421821450972192</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2916,27 +2916,27 @@
         <v>33.688000000000002</v>
       </c>
       <c r="F23">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D23,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>34.061293748693295</v>
+        <v>32.708984319464776</v>
       </c>
       <c r="H23" s="4">
         <f t="shared" si="3"/>
-        <v>34.061293748693295</v>
+        <v>32.708984319464776</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>34.061293748693295</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
@@ -2976,16 +2976,16 @@
         <v>31.167000000000002</v>
       </c>
       <c r="F24">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D24,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>31.512358770646042</v>
+        <v>32.8416642274723</v>
       </c>
       <c r="H24" s="4">
         <f t="shared" si="3"/>
-        <v>31.512358770646042</v>
+        <v>32.8416642274723</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>23.417000000000002</v>
       </c>
       <c r="F25">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D25,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G25">
@@ -3096,16 +3096,16 @@
         <v>31.062999999999999</v>
       </c>
       <c r="F26">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D26,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>31.407206355843613</v>
+        <v>30.160270123353545</v>
       </c>
       <c r="H26" s="4">
         <f t="shared" si="3"/>
-        <v>31.407206355843613</v>
+        <v>30.160270123353545</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>23</v>
       </c>
       <c r="F27">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D27,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G27">
@@ -3216,16 +3216,16 @@
         <v>26.917000000000002</v>
       </c>
       <c r="F28">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D28,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>27.215264896508472</v>
+        <v>28.363303366088232</v>
       </c>
       <c r="H28" s="4">
         <f t="shared" si="3"/>
-        <v>27.215264896508472</v>
+        <v>28.363303366088232</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>24.25</v>
       </c>
       <c r="F29">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D29,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G29">
@@ -3336,7 +3336,7 @@
         <v>23.417000000000002</v>
       </c>
       <c r="F30">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D30,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G30">
@@ -3396,16 +3396,16 @@
         <v>23.582999999999998</v>
       </c>
       <c r="F31">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D31,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>23.84432113736149</v>
+        <v>24.85016098682835</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="3"/>
-        <v>23.84432113736149</v>
+        <v>24.85016098682835</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>22.25</v>
       </c>
       <c r="F32">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D32,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G32">
@@ -3516,16 +3516,16 @@
         <v>16</v>
       </c>
       <c r="F33">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D33,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>16.177294584988502</v>
+        <v>16.859711478151787</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="3"/>
-        <v>16.177294584988502</v>
+        <v>16.859711478151787</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3576,16 +3576,16 @@
         <v>20.25</v>
       </c>
       <c r="F34">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D34,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>20.474388459126072</v>
+        <v>21.338072339535856</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="3"/>
-        <v>20.474388459126072</v>
+        <v>21.338072339535856</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>12.25</v>
       </c>
       <c r="F35">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D35,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>12.385741166631822</v>
+        <v>11.893999581852395</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="3"/>
-        <v>12.385741166631822</v>
+        <v>11.893999581852395</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>24</v>
       </c>
       <c r="F36">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D36,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>24.265941877482753</v>
+        <v>23.302529793016937</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="3"/>
-        <v>24.265941877482753</v>
+        <v>23.302529793016937</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="F37">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D37,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G37">
@@ -3816,7 +3816,7 @@
         <v>16.875</v>
       </c>
       <c r="F38">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D38,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G38">
@@ -3876,7 +3876,7 @@
         <v>19.25</v>
       </c>
       <c r="F39">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D39,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G39">
@@ -3936,7 +3936,7 @@
         <v>18.332999999999998</v>
       </c>
       <c r="F40">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D40,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G40">
@@ -3996,16 +3996,16 @@
         <v>22.312999999999999</v>
       </c>
       <c r="F41">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D41,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>22.560248379678026</v>
+        <v>21.664556136316119</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="3"/>
-        <v>22.560248379678026</v>
+        <v>21.664556136316119</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>18.332999999999998</v>
       </c>
       <c r="F42">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D42,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G42">
@@ -4116,16 +4116,16 @@
         <v>15.438000000000001</v>
       </c>
       <c r="F43">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D43,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>15.609067112690781</v>
+        <v>14.989352289358145</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="3"/>
-        <v>15.609067112690781</v>
+        <v>14.989352289358145</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4176,16 +4176,16 @@
         <v>13.438000000000001</v>
       </c>
       <c r="F44">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D44,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>13.586905289567218</v>
+        <v>14.160050177712733</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="3"/>
-        <v>13.586905289567218</v>
+        <v>14.160050177712733</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>22.625</v>
       </c>
       <c r="F45">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D45,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G45">
@@ -4248,15 +4248,15 @@
         <v>23.273050386786537</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23.273050386786537</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45">
         <f t="shared" si="8"/>
@@ -4296,16 +4296,16 @@
         <v>18.167000000000002</v>
       </c>
       <c r="F46">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D46,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>18.368306920342885</v>
+        <v>19.143148651473972</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="3"/>
-        <v>18.368306920342885</v>
+        <v>19.143148651473972</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>12.25</v>
       </c>
       <c r="F47">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D47,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>12.385741166631822</v>
+        <v>11.893999581852395</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="3"/>
-        <v>12.385741166631822</v>
+        <v>11.893999581852395</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>15</v>
       </c>
       <c r="F48">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D48,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G48">
@@ -4476,7 +4476,7 @@
         <v>11.583</v>
       </c>
       <c r="F49">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D49,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G49">
@@ -4536,16 +4536,16 @@
         <v>15.25</v>
       </c>
       <c r="F50">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D50,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>15.418983901317166</v>
+        <v>16.069412502613421</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" si="3"/>
-        <v>15.418983901317166</v>
+        <v>16.069412502613421</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4596,7 +4596,7 @@
         <v>12.063000000000001</v>
       </c>
       <c r="F51">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D51,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G51">
@@ -4656,16 +4656,16 @@
         <v>20.562999999999999</v>
       </c>
       <c r="F52">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D52,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>20.790856784444909</v>
+        <v>19.965413338908636</v>
       </c>
       <c r="H52" s="4">
         <f t="shared" si="3"/>
-        <v>20.790856784444909</v>
+        <v>19.965413338908636</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>10.333</v>
       </c>
       <c r="F53">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D53,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G53">
@@ -4776,16 +4776,16 @@
         <v>9.0630000000000006</v>
       </c>
       <c r="F54">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D54,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>9.1634263014844244</v>
+        <v>8.7996178130880214</v>
       </c>
       <c r="H54" s="4">
         <f t="shared" si="3"/>
-        <v>9.1634263014844244</v>
+        <v>8.7996178130880214</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4836,27 +4836,27 @@
         <v>22.875</v>
       </c>
       <c r="F55">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D55,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>23.12847585197575</v>
+        <v>22.210223708969266</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="3"/>
-        <v>23.12847585197575</v>
+        <v>22.210223708969266</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>23.12847585197575</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <f t="shared" si="9"/>
@@ -4896,7 +4896,7 @@
         <v>9.375</v>
       </c>
       <c r="F56">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D56,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G56">
@@ -4956,27 +4956,27 @@
         <v>19.5</v>
       </c>
       <c r="F57">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D57,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>19.716077775454735</v>
+        <v>18.933305456826261</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="3"/>
-        <v>19.716077775454735</v>
+        <v>18.933305456826261</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18.933305456826261</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="P57">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
@@ -5016,7 +5016,7 @@
         <v>11.563000000000001</v>
       </c>
       <c r="F58">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D58,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G58">
@@ -5076,7 +5076,7 @@
         <v>11.333</v>
       </c>
       <c r="F59">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D59,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G59">
@@ -5136,7 +5136,7 @@
         <v>2.75</v>
       </c>
       <c r="F60">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D60,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G60">
@@ -5196,16 +5196,16 @@
         <v>7.5</v>
       </c>
       <c r="F61">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D61,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>7.5831068367133607</v>
+        <v>7.9029897553836506</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" si="3"/>
-        <v>7.5831068367133607</v>
+        <v>7.9029897553836506</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D62,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G62">
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D63,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G63">
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D64,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G64">
@@ -5436,7 +5436,7 @@
         <v>3.75</v>
       </c>
       <c r="F65">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D65,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G65">
@@ -5496,16 +5496,16 @@
         <v>5.25</v>
       </c>
       <c r="F66">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D66,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G66">
         <f t="shared" si="2"/>
-        <v>5.308174785699352</v>
+        <v>5.0974283922224553</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="3"/>
-        <v>5.308174785699352</v>
+        <v>5.0974283922224553</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>7.9169999999999998</v>
       </c>
       <c r="F67">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D67,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G67">
@@ -5616,7 +5616,7 @@
         <v>2.625</v>
       </c>
       <c r="F68">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D68,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G68">
@@ -5676,16 +5676,16 @@
         <v>13.917</v>
       </c>
       <c r="F69">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D69,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G69">
         <f t="shared" si="12"/>
-        <v>14.071213046205312</v>
+        <v>14.664787790089902</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" si="13"/>
-        <v>14.071213046205312</v>
+        <v>14.664787790089902</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         <v>8.375</v>
       </c>
       <c r="F70">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D70,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G70">
         <f t="shared" si="12"/>
-        <v>8.4678026343299191</v>
+        <v>8.1316119590215354</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" si="13"/>
-        <v>8.4678026343299191</v>
+        <v>8.1316119590215354</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -5796,16 +5796,16 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="F71">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D71,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G71">
         <f t="shared" si="12"/>
-        <v>3.7076337026970521</v>
+        <v>3.8640351243989124</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" si="13"/>
-        <v>3.7076337026970521</v>
+        <v>3.8640351243989124</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -5856,16 +5856,16 @@
         <v>14.125</v>
       </c>
       <c r="F72">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D72,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G72">
         <f t="shared" si="12"/>
-        <v>14.281517875810161</v>
+        <v>13.714509721931842</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="13"/>
-        <v>14.281517875810161</v>
+        <v>13.714509721931842</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -5916,7 +5916,7 @@
         <v>12.313000000000001</v>
       </c>
       <c r="F73">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D73,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G73">
@@ -5976,16 +5976,16 @@
         <v>10.625</v>
       </c>
       <c r="F74">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D74,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G74">
         <f t="shared" si="12"/>
-        <v>10.742734685343928</v>
+        <v>11.195902153460171</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="13"/>
-        <v>10.742734685343928</v>
+        <v>11.195902153460171</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6036,8 +6036,8 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D75,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G75">
         <f t="shared" si="12"/>
@@ -6096,7 +6096,7 @@
         <v>6.125</v>
       </c>
       <c r="F76">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D76,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G76">
@@ -6156,16 +6156,16 @@
         <v>4.3330000000000002</v>
       </c>
       <c r="F77">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D77,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G77">
         <f t="shared" si="12"/>
-        <v>4.3810135897971989</v>
+        <v>4.5658206146769809</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="13"/>
-        <v>4.3810135897971989</v>
+        <v>4.5658206146769809</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6216,7 +6216,7 @@
         <v>7.8330000000000002</v>
       </c>
       <c r="F78">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D78,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G78">
@@ -6276,8 +6276,8 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D79,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G79">
         <f t="shared" si="12"/>
@@ -6336,16 +6336,16 @@
         <v>6.4379999999999997</v>
       </c>
       <c r="F80">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D80,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G80">
         <f t="shared" si="12"/>
-        <v>6.5093389086347484</v>
+        <v>6.2509036169767933</v>
       </c>
       <c r="H80" s="4">
         <f t="shared" si="13"/>
-        <v>6.5093389086347484</v>
+        <v>6.2509036169767933</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -6396,7 +6396,7 @@
         <v>12.75</v>
       </c>
       <c r="F81">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D81,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G81">
@@ -6456,16 +6456,16 @@
         <v>11.833</v>
       </c>
       <c r="F82">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D82,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G82">
         <f t="shared" si="12"/>
-        <v>11.96412042651056</v>
+        <v>12.468810370060632</v>
       </c>
       <c r="H82" s="4">
         <f t="shared" si="13"/>
-        <v>11.96412042651056</v>
+        <v>12.468810370060632</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6516,8 +6516,8 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D83,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G83">
         <f t="shared" si="12"/>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D84,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G84">
@@ -6636,16 +6636,16 @@
         <v>1.75</v>
       </c>
       <c r="F85">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D85,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G85">
         <f t="shared" si="12"/>
-        <v>1.7693915952331174</v>
+        <v>1.8440309429228519</v>
       </c>
       <c r="H85" s="4">
         <f t="shared" si="13"/>
-        <v>1.7693915952331174</v>
+        <v>1.8440309429228519</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -6696,16 +6696,16 @@
         <v>6.8129999999999997</v>
       </c>
       <c r="F86">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D86,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G86">
         <f t="shared" si="12"/>
-        <v>6.8884942504704165</v>
+        <v>6.6150056449926824</v>
       </c>
       <c r="H86" s="4">
         <f t="shared" si="13"/>
-        <v>6.8884942504704165</v>
+        <v>6.6150056449926824</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -6756,16 +6756,16 @@
         <v>4.625</v>
       </c>
       <c r="F87">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D87,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G87">
         <f t="shared" si="12"/>
-        <v>4.6762492159732387</v>
+        <v>4.4905916788626392</v>
       </c>
       <c r="H87" s="4">
         <f t="shared" si="13"/>
-        <v>4.6762492159732387</v>
+        <v>4.4905916788626392</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D88,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G88">
@@ -6876,8 +6876,8 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D89,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G89">
         <f t="shared" si="12"/>
@@ -6936,16 +6936,16 @@
         <v>11.083</v>
       </c>
       <c r="F90">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D90,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G90">
         <f t="shared" si="12"/>
-        <v>11.205809742839223</v>
+        <v>11.678511394522266</v>
       </c>
       <c r="H90" s="4">
         <f t="shared" si="13"/>
-        <v>11.205809742839223</v>
+        <v>11.678511394522266</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D91,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G91">
@@ -7056,7 +7056,7 @@
         <v>14.688000000000001</v>
       </c>
       <c r="F92">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D92,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G92">
@@ -7116,7 +7116,7 @@
         <v>2.75</v>
       </c>
       <c r="F93">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D93,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G93">
@@ -7176,7 +7176,7 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="F94">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D94,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G94">
@@ -7236,8 +7236,8 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D95,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G95">
         <f t="shared" si="12"/>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D96,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G96">
@@ -7356,16 +7356,16 @@
         <v>2.75</v>
       </c>
       <c r="F97">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D97,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G97">
         <f t="shared" si="12"/>
-        <v>2.780472506794899</v>
+        <v>2.8977629103073386</v>
       </c>
       <c r="H97" s="4">
         <f t="shared" si="13"/>
-        <v>2.780472506794899</v>
+        <v>2.8977629103073386</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D98,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G98">
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D99,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G99">
@@ -7536,7 +7536,7 @@
         <v>8.4169999999999998</v>
       </c>
       <c r="F100">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D100,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G100">
@@ -7596,7 +7596,7 @@
         <v>1.625</v>
       </c>
       <c r="F101">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D101,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G101">
@@ -7656,7 +7656,7 @@
         <v>3.5</v>
       </c>
       <c r="F102">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D102,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G102">
@@ -7716,23 +7716,23 @@
         <v>17.5</v>
       </c>
       <c r="F103">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D103,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G103">
         <f t="shared" si="12"/>
-        <v>17.693915952331174</v>
+        <v>18.440309429228517</v>
       </c>
       <c r="H103" s="4">
         <f t="shared" si="13"/>
-        <v>17.693915952331174</v>
+        <v>18.440309429228517</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103">
         <f t="shared" si="14"/>
-        <v>17.693915952331174</v>
+        <v>18.440309429228517</v>
       </c>
       <c r="K103">
         <f t="shared" si="11"/>
@@ -7776,7 +7776,7 @@
         <v>4.4379999999999997</v>
       </c>
       <c r="F104">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D104,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G104">
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D105,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G105">
@@ -7896,8 +7896,8 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D106,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G106">
         <f t="shared" si="12"/>
@@ -7956,7 +7956,7 @@
         <v>2.75</v>
       </c>
       <c r="F107">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D107,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G107">
@@ -8016,7 +8016,7 @@
         <v>11.75</v>
       </c>
       <c r="F108">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D108,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G108">
@@ -8076,8 +8076,8 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D109,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G109">
         <f t="shared" si="12"/>
@@ -8136,16 +8136,16 @@
         <v>3.25</v>
       </c>
       <c r="F110">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D110,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G110">
         <f t="shared" si="12"/>
-        <v>3.2860129625757892</v>
+        <v>3.4246288939995817</v>
       </c>
       <c r="H110" s="4">
         <f t="shared" si="13"/>
-        <v>3.2860129625757892</v>
+        <v>3.4246288939995817</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -8196,8 +8196,8 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D111,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G111">
         <f t="shared" si="12"/>
@@ -8256,8 +8256,8 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D112,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G112">
         <f t="shared" si="12"/>
@@ -8316,7 +8316,7 @@
         <v>6.125</v>
       </c>
       <c r="F113">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D113,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G113">
@@ -8376,16 +8376,16 @@
         <v>3.5830000000000002</v>
       </c>
       <c r="F114">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D114,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G114">
         <f t="shared" si="12"/>
-        <v>3.6227029061258627</v>
+        <v>3.4788735103491537</v>
       </c>
       <c r="H114" s="4">
         <f t="shared" si="13"/>
-        <v>3.6227029061258627</v>
+        <v>3.4788735103491537</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D115,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G115">
@@ -8496,7 +8496,7 @@
         <v>13.063000000000001</v>
       </c>
       <c r="F116">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D116,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.0286431110181895</v>
       </c>
       <c r="G116">
@@ -8556,8 +8556,8 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D117,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>1.0537319673844867</v>
       </c>
       <c r="G117">
         <f t="shared" si="12"/>
@@ -8616,16 +8616,16 @@
         <v>3.875</v>
       </c>
       <c r="F118">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3))</f>
-        <v>1.0110809115617814</v>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D118,OverUnder!$A$2:$C$13,3,FALSE))</f>
+        <v>0.97093874137570568</v>
       </c>
       <c r="G118">
         <f t="shared" si="12"/>
-        <v>3.9179385323019029</v>
+        <v>3.7623876228308597</v>
       </c>
       <c r="H118" s="4">
         <f t="shared" si="13"/>
-        <v>3.9179385323019029</v>
+        <v>3.7623876228308597</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>10.167</v>
       </c>
       <c r="F119">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3)),0,VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3))</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D119,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>1.02362533974493</v>
       </c>
       <c r="G119">
@@ -8721,7 +8721,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F120">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D120,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D120,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D120,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G120">
@@ -8766,7 +8766,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F121">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D121,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D121,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D121,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G121">
@@ -8811,7 +8811,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F122">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D122,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D122,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D122,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G122">
@@ -8856,7 +8856,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F123">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D123,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D123,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D123,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G123">
@@ -8901,7 +8901,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F124">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D124,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D124,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D124,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G124">
@@ -8946,7 +8946,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F125">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D125,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D125,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D125,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G125">
@@ -8991,7 +8991,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F126">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D126,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D126,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D126,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G126">
@@ -9036,7 +9036,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F127">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D127,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D127,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D127,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G127">
@@ -9081,7 +9081,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.45">
       <c r="F128">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D128,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D128,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D128,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G128">
@@ -9126,7 +9126,7 @@
     </row>
     <row r="129" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F129">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D129,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D129,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D129,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G129">
@@ -9171,7 +9171,7 @@
     </row>
     <row r="130" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F130">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D130,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D130,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D130,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G130">
@@ -9216,7 +9216,7 @@
     </row>
     <row r="131" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F131">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D131,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D131,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D131,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G131">
@@ -9261,7 +9261,7 @@
     </row>
     <row r="132" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F132">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D132,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D132,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D132,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G132">
@@ -9306,7 +9306,7 @@
     </row>
     <row r="133" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F133">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D133,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D133,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D133,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G133">
@@ -9351,7 +9351,7 @@
     </row>
     <row r="134" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F134">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D134,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D134,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D134,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G134">
@@ -9396,7 +9396,7 @@
     </row>
     <row r="135" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F135">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D135,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D135,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D135,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G135">
@@ -9441,7 +9441,7 @@
     </row>
     <row r="136" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F136">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D136,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D136,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D136,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G136">
@@ -9486,7 +9486,7 @@
     </row>
     <row r="137" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F137">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D137,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D137,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D137,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G137">
@@ -9531,7 +9531,7 @@
     </row>
     <row r="138" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F138">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D138,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D138,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D138,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G138">
@@ -9576,7 +9576,7 @@
     </row>
     <row r="139" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F139">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D139,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D139,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D139,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G139">
@@ -9621,7 +9621,7 @@
     </row>
     <row r="140" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F140">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D140,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D140,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D140,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G140">
@@ -9666,7 +9666,7 @@
     </row>
     <row r="141" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F141">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D141,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D141,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D141,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G141">
@@ -9711,7 +9711,7 @@
     </row>
     <row r="142" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F142">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D142,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D142,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D142,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G142">
@@ -9756,7 +9756,7 @@
     </row>
     <row r="143" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F143">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D143,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D143,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D143,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G143">
@@ -9801,7 +9801,7 @@
     </row>
     <row r="144" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F144">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D144,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D144,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D144,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G144">
@@ -9846,7 +9846,7 @@
     </row>
     <row r="145" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F145">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D145,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D145,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D145,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G145">
@@ -9891,7 +9891,7 @@
     </row>
     <row r="146" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F146">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D146,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D146,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D146,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G146">
@@ -9936,7 +9936,7 @@
     </row>
     <row r="147" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F147">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D147,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D147,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D147,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G147">
@@ -9981,7 +9981,7 @@
     </row>
     <row r="148" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F148">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D148,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D148,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D148,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G148">
@@ -10026,7 +10026,7 @@
     </row>
     <row r="149" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F149">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D149,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D149,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D149,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G149">
@@ -10071,7 +10071,7 @@
     </row>
     <row r="150" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F150">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D150,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D150,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D150,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G150">
@@ -10116,7 +10116,7 @@
     </row>
     <row r="151" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F151">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D151,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D151,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D151,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G151">
@@ -10161,7 +10161,7 @@
     </row>
     <row r="152" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F152">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D152,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D152,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D152,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G152">
@@ -10206,7 +10206,7 @@
     </row>
     <row r="153" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F153">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D153,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D153,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D153,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G153">
@@ -10251,7 +10251,7 @@
     </row>
     <row r="154" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F154">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D154,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D154,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D154,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G154">
@@ -10296,7 +10296,7 @@
     </row>
     <row r="155" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F155">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D155,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G155">
@@ -10341,7 +10341,7 @@
     </row>
     <row r="156" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F156">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D156,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G156">
@@ -10386,7 +10386,7 @@
     </row>
     <row r="157" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F157">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D157,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G157">
@@ -10431,7 +10431,7 @@
     </row>
     <row r="158" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F158">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D158,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G158">
@@ -10476,7 +10476,7 @@
     </row>
     <row r="159" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F159">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D159,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G159">
@@ -10521,7 +10521,7 @@
     </row>
     <row r="160" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F160">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D160,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G160">
@@ -10566,7 +10566,7 @@
     </row>
     <row r="161" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F161">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D161,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G161">
@@ -10611,7 +10611,7 @@
     </row>
     <row r="162" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F162">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D162,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G162">
@@ -10656,7 +10656,7 @@
     </row>
     <row r="163" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F163">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D163,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G163">
@@ -10701,7 +10701,7 @@
     </row>
     <row r="164" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F164">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D164,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G164">
@@ -10746,7 +10746,7 @@
     </row>
     <row r="165" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F165">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D165,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G165">
@@ -10791,7 +10791,7 @@
     </row>
     <row r="166" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F166">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D166,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G166">
@@ -10836,7 +10836,7 @@
     </row>
     <row r="167" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F167">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D167,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G167">
@@ -10881,7 +10881,7 @@
     </row>
     <row r="168" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F168">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D168,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G168">
@@ -10926,7 +10926,7 @@
     </row>
     <row r="169" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F169">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D169,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G169">
@@ -10971,7 +10971,7 @@
     </row>
     <row r="170" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F170">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D170,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G170">
@@ -11016,7 +11016,7 @@
     </row>
     <row r="171" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F171">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D171,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G171">
@@ -11061,7 +11061,7 @@
     </row>
     <row r="172" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F172">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D172,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G172">
@@ -11106,7 +11106,7 @@
     </row>
     <row r="173" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F173">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D173,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G173">
@@ -11151,7 +11151,7 @@
     </row>
     <row r="174" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F174">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D174,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G174">
@@ -11196,7 +11196,7 @@
     </row>
     <row r="175" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F175">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D175,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G175">
@@ -11241,7 +11241,7 @@
     </row>
     <row r="176" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F176">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D176,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G176">
@@ -11286,7 +11286,7 @@
     </row>
     <row r="177" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F177">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D177,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G177">
@@ -11331,7 +11331,7 @@
     </row>
     <row r="178" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F178">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D178,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G178">
@@ -11376,7 +11376,7 @@
     </row>
     <row r="179" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F179">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D179,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G179">
@@ -11421,7 +11421,7 @@
     </row>
     <row r="180" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F180">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D180,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G180">
@@ -11466,7 +11466,7 @@
     </row>
     <row r="181" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F181">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D181,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G181">
@@ -11511,7 +11511,7 @@
     </row>
     <row r="182" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F182">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D182,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G182">
@@ -11556,7 +11556,7 @@
     </row>
     <row r="183" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F183">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D183,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G183">
@@ -11601,7 +11601,7 @@
     </row>
     <row r="184" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F184">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D184,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G184">
@@ -11646,7 +11646,7 @@
     </row>
     <row r="185" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F185">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D185,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G185">
@@ -11691,7 +11691,7 @@
     </row>
     <row r="186" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F186">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D186,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G186">
@@ -11736,7 +11736,7 @@
     </row>
     <row r="187" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F187">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D187,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G187">
@@ -11781,7 +11781,7 @@
     </row>
     <row r="188" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F188">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D188,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G188">
@@ -11826,7 +11826,7 @@
     </row>
     <row r="189" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F189">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D189,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G189">
@@ -11871,7 +11871,7 @@
     </row>
     <row r="190" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F190">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D190,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G190">
@@ -11916,7 +11916,7 @@
     </row>
     <row r="191" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F191">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D191,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G191">
@@ -11961,7 +11961,7 @@
     </row>
     <row r="192" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F192">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D192,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G192">
@@ -12006,7 +12006,7 @@
     </row>
     <row r="193" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F193">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D193,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G193">
@@ -12051,7 +12051,7 @@
     </row>
     <row r="194" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F194">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D194,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G194">
@@ -12096,7 +12096,7 @@
     </row>
     <row r="195" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F195">
-        <f>IF(ISNA(VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3)),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D195,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G195">
@@ -12141,7 +12141,7 @@
     </row>
     <row r="196" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F196">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D196,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D196,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D196,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G196">
@@ -12186,7 +12186,7 @@
     </row>
     <row r="197" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F197">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D197,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D197,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D197,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G197">
@@ -12231,7 +12231,7 @@
     </row>
     <row r="198" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F198">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D198,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D198,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D198,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G198">
@@ -12276,7 +12276,7 @@
     </row>
     <row r="199" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F199">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D199,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D199,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D199,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G199">
@@ -12321,7 +12321,7 @@
     </row>
     <row r="200" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F200">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D200,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D200,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D200,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G200">
@@ -12366,7 +12366,7 @@
     </row>
     <row r="201" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F201">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D201,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D201,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D201,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G201">
@@ -12411,7 +12411,7 @@
     </row>
     <row r="202" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F202">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D202,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D202,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D202,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G202">
@@ -12456,7 +12456,7 @@
     </row>
     <row r="203" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F203">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D203,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D203,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D203,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G203">
@@ -12501,7 +12501,7 @@
     </row>
     <row r="204" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F204">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D204,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D204,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D204,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G204">
@@ -12546,7 +12546,7 @@
     </row>
     <row r="205" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F205">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D205,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D205,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D205,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G205">
@@ -12591,7 +12591,7 @@
     </row>
     <row r="206" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F206">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D206,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D206,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D206,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G206">
@@ -12636,7 +12636,7 @@
     </row>
     <row r="207" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F207">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D207,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D207,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D207,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G207">
@@ -12681,7 +12681,7 @@
     </row>
     <row r="208" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F208">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D208,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D208,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D208,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G208">
@@ -12726,7 +12726,7 @@
     </row>
     <row r="209" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F209">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D209,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D209,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D209,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G209">
@@ -12771,7 +12771,7 @@
     </row>
     <row r="210" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F210">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D210,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D210,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D210,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G210">
@@ -12816,7 +12816,7 @@
     </row>
     <row r="211" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F211">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D211,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D211,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D211,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G211">
@@ -12861,7 +12861,7 @@
     </row>
     <row r="212" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F212">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D212,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D212,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D212,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G212">
@@ -12906,7 +12906,7 @@
     </row>
     <row r="213" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F213">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D213,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D213,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D213,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G213">
@@ -12951,7 +12951,7 @@
     </row>
     <row r="214" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F214">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D214,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D214,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D214,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G214">
@@ -12996,7 +12996,7 @@
     </row>
     <row r="215" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F215">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D215,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D215,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D215,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G215">
@@ -13041,7 +13041,7 @@
     </row>
     <row r="216" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F216">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D216,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D216,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D216,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G216">
@@ -13086,7 +13086,7 @@
     </row>
     <row r="217" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F217">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D217,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D217,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D217,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G217">
@@ -13131,7 +13131,7 @@
     </row>
     <row r="218" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F218">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D218,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D218,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D218,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G218">
@@ -13176,7 +13176,7 @@
     </row>
     <row r="219" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F219">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D219,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D219,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D219,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G219">
@@ -13221,7 +13221,7 @@
     </row>
     <row r="220" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F220">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D220,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D220,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D220,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G220">
@@ -13266,7 +13266,7 @@
     </row>
     <row r="221" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F221">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D221,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D221,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D221,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G221">
@@ -13311,7 +13311,7 @@
     </row>
     <row r="222" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F222">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D222,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D222,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D222,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G222">
@@ -13356,7 +13356,7 @@
     </row>
     <row r="223" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F223">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D223,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D223,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D223,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G223">
@@ -13401,7 +13401,7 @@
     </row>
     <row r="224" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F224">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D224,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D224,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D224,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G224">
@@ -13446,7 +13446,7 @@
     </row>
     <row r="225" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F225">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D225,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D225,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D225,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G225">
@@ -13491,7 +13491,7 @@
     </row>
     <row r="226" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F226">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D226,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D226,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D226,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G226">
@@ -13536,7 +13536,7 @@
     </row>
     <row r="227" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F227">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D227,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D227,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D227,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G227">
@@ -13581,7 +13581,7 @@
     </row>
     <row r="228" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F228">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D228,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D228,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D228,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G228">
@@ -13626,7 +13626,7 @@
     </row>
     <row r="229" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F229">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D229,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D229,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D229,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G229">
@@ -13671,7 +13671,7 @@
     </row>
     <row r="230" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F230">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D230,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D230,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D230,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G230">
@@ -13716,7 +13716,7 @@
     </row>
     <row r="231" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F231">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D231,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D231,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D231,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G231">
@@ -13761,7 +13761,7 @@
     </row>
     <row r="232" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F232">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D232,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D232,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D232,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G232">
@@ -13806,7 +13806,7 @@
     </row>
     <row r="233" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F233">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D233,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D233,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D233,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G233">
@@ -13851,7 +13851,7 @@
     </row>
     <row r="234" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F234">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D234,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D234,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D234,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G234">
@@ -13896,7 +13896,7 @@
     </row>
     <row r="235" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F235">
-        <f>_xlfn.IFNA(VLOOKUP(DKSalaries!D235,OverUnder!$A$2:$C$13,3),0)</f>
+        <f>IF(ISNA(VLOOKUP(DKSalaries!D235,OverUnder!$A$2:$C$13,3,FALSE)),0,VLOOKUP(DKSalaries!D235,OverUnder!$A$2:$C$13,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G235">

--- a/DKSalaries_template.xlsx
+++ b/DKSalaries_template.xlsx
@@ -1467,7 +1467,7 @@
   <dimension ref="A1:X235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
